--- a/Fieldvalidation/Nursingstation.xlsx
+++ b/Fieldvalidation/Nursingstation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Fieldvalidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F09FFBB-7329-4B11-9329-82D3E3921CA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3CB9F1-F48D-4F99-8379-08C932BC14DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Field Validation</t>
   </si>
@@ -104,6 +104,33 @@
   </si>
   <si>
     <t>Character + is not acceptable</t>
+  </si>
+  <si>
+    <t>Procedure&gt;&gt;Pending Procedure</t>
+  </si>
+  <si>
+    <t>Search&gt;&gt;Patient No</t>
+  </si>
+  <si>
+    <t>Transactions&gt;&gt;Service Entry</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Transactions&gt;&gt;Medicine Requests</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Nurses Notes</t>
+  </si>
+  <si>
+    <t>A G(cm)</t>
+  </si>
+  <si>
+    <t>Unable to select range</t>
   </si>
 </sst>
 </file>
@@ -184,14 +211,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,13 +574,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -593,10 +620,10 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -607,10 +634,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -629,25 +656,25 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -656,16 +683,16 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -676,7 +703,7 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -684,14 +711,78 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="3:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
